--- a/Pomiary_Performer/Data/Config.xlsx
+++ b/Pomiary_Performer/Data/Config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -187,6 +187,9 @@
   <si>
     <t xml:space="preserve">tlenLow
 </t>
+  </si>
+  <si>
+    <t>temperatura</t>
   </si>
 </sst>
 </file>
@@ -2845,7 +2848,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1"/>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>

--- a/Pomiary_Performer/Data/Config.xlsx
+++ b/Pomiary_Performer/Data/Config.xlsx
@@ -185,8 +185,7 @@
     <t>tlenHigh</t>
   </si>
   <si>
-    <t xml:space="preserve">tlenLow
-</t>
+    <t>tlenLow</t>
   </si>
   <si>
     <t>temperatura</t>
